--- a/data/financial_statements/soci/VFC.xlsx
+++ b/data/financial_statements/soci/VFC.xlsx
@@ -14,9 +14,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -131,9 +230,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -186,12 +282,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -496,126 +589,126 @@
   <sheetData>
     <row r="1" spans="1:34">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="U1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="V1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:34">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B2">
-        <v>3091000000</v>
+        <v>3080600000</v>
       </c>
       <c r="C2">
-        <v>2266000000</v>
+        <v>2261595000</v>
       </c>
       <c r="D2">
-        <v>2836000000</v>
+        <v>2824664000</v>
       </c>
       <c r="E2">
-        <v>3634000000</v>
+        <v>3624384000</v>
       </c>
       <c r="F2">
-        <v>3203000000</v>
+        <v>3198235000</v>
       </c>
       <c r="G2">
         <v>2194557000</v>
@@ -703,23 +796,23 @@
       </c>
     </row>
     <row r="3" spans="1:34">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B3">
-        <v>-0.035</v>
+        <v>-0.0368</v>
       </c>
       <c r="C3">
-        <v>0.0326</v>
+        <v>0.0305</v>
       </c>
       <c r="D3">
-        <v>0.09810000000000001</v>
+        <v>0.09370000000000001</v>
       </c>
       <c r="E3">
-        <v>0.2229</v>
+        <v>0.2197</v>
       </c>
       <c r="F3">
-        <v>0.228</v>
+        <v>0.2262</v>
       </c>
       <c r="G3">
         <v>1.039</v>
@@ -807,23 +900,23 @@
       </c>
     </row>
     <row r="4" spans="1:34">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B4">
-        <v>1508000000</v>
+        <v>1498177000</v>
       </c>
       <c r="C4">
-        <v>1048000000</v>
+        <v>1042982000</v>
       </c>
       <c r="D4">
-        <v>1359000000</v>
+        <v>1358792000</v>
       </c>
       <c r="E4">
-        <v>1589000000</v>
+        <v>1592604000</v>
       </c>
       <c r="F4">
-        <v>1463000000</v>
+        <v>1479446000</v>
       </c>
       <c r="G4">
         <v>955551000</v>
@@ -911,23 +1004,23 @@
       </c>
     </row>
     <row r="5" spans="1:34">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B5">
-        <v>1583000000</v>
+        <v>1582423000</v>
       </c>
       <c r="C5">
-        <v>1219000000</v>
+        <v>1218613000</v>
       </c>
       <c r="D5">
-        <v>1477000000</v>
+        <v>1465872000</v>
       </c>
       <c r="E5">
-        <v>2045000000</v>
+        <v>2031780000</v>
       </c>
       <c r="F5">
-        <v>1740000000</v>
+        <v>1718789000</v>
       </c>
       <c r="G5">
         <v>1239006000</v>
@@ -1015,8 +1108,8 @@
       </c>
     </row>
     <row r="6" spans="1:34">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B6">
         <v>1251320000</v>
@@ -1031,7 +1124,7 @@
         <v>1353338000</v>
       </c>
       <c r="F6">
-        <v>1157000000</v>
+        <v>1160303000</v>
       </c>
       <c r="G6">
         <v>1036122000</v>
@@ -1104,8 +1197,8 @@
       </c>
     </row>
     <row r="7" spans="1:34">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B7">
         <v>-90818900</v>
@@ -1208,8 +1301,8 @@
       </c>
     </row>
     <row r="8" spans="1:34">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B8">
         <v>35000000</v>
@@ -1249,23 +1342,23 @@
       </c>
     </row>
     <row r="9" spans="1:34">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B9">
-        <v>1000000</v>
+        <v>34726000</v>
       </c>
       <c r="C9">
-        <v>1000000</v>
+        <v>32545000</v>
       </c>
       <c r="D9">
-        <v>1000000</v>
+        <v>31670000</v>
       </c>
       <c r="E9">
-        <v>1000000</v>
+        <v>33994000</v>
       </c>
       <c r="F9">
-        <v>2000000</v>
+        <v>35888000</v>
       </c>
       <c r="G9">
         <v>34917000</v>
@@ -1353,23 +1446,23 @@
       </c>
     </row>
     <row r="10" spans="1:34">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B10">
-        <v>462000000</v>
+        <v>-43183000</v>
       </c>
       <c r="C10">
-        <v>-86000000</v>
+        <v>-125976000</v>
       </c>
       <c r="D10">
-        <v>8000000</v>
+        <v>-21271000</v>
       </c>
       <c r="E10">
-        <v>-6000000</v>
+        <v>-37128000</v>
       </c>
       <c r="F10">
-        <v>-10000000</v>
+        <v>-26821000</v>
       </c>
       <c r="G10">
         <v>-23734000</v>
@@ -1442,23 +1535,23 @@
       </c>
     </row>
     <row r="11" spans="1:34">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B11">
-        <v>-134000000</v>
+        <v>-134002000</v>
       </c>
       <c r="C11">
-        <v>-63000000</v>
+        <v>-62614000</v>
       </c>
       <c r="D11">
-        <v>171000000</v>
+        <v>171121000</v>
       </c>
       <c r="E11">
-        <v>641000000</v>
+        <v>641314000</v>
       </c>
       <c r="F11">
-        <v>532000000</v>
+        <v>531665000</v>
       </c>
       <c r="G11">
         <v>179150000</v>
@@ -1546,23 +1639,23 @@
       </c>
     </row>
     <row r="12" spans="1:34">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B12">
-        <v>-16000000</v>
+        <v>-15570000</v>
       </c>
       <c r="C12">
-        <v>-7000000</v>
+        <v>-6654000</v>
       </c>
       <c r="D12">
-        <v>91000000</v>
+        <v>90678000</v>
       </c>
       <c r="E12">
-        <v>124000000</v>
+        <v>123513000</v>
       </c>
       <c r="F12">
-        <v>68000000</v>
+        <v>67612000</v>
       </c>
       <c r="G12">
         <v>25178000</v>
@@ -1650,8 +1743,8 @@
       </c>
     </row>
     <row r="13" spans="1:34">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B13">
         <v>-118432000</v>
@@ -1739,8 +1832,8 @@
       </c>
     </row>
     <row r="14" spans="1:34">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1762,23 +1855,23 @@
       </c>
     </row>
     <row r="15" spans="1:34">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B15">
-        <v>-118000000</v>
+        <v>-118432000</v>
       </c>
       <c r="C15">
-        <v>-56000000</v>
+        <v>-55960000</v>
       </c>
       <c r="D15">
-        <v>81000000</v>
+        <v>80842000</v>
       </c>
       <c r="E15">
-        <v>518000000</v>
+        <v>517801000</v>
       </c>
       <c r="F15">
-        <v>464000000</v>
+        <v>464053000</v>
       </c>
       <c r="G15">
         <v>324245000</v>
@@ -1866,8 +1959,8 @@
       </c>
     </row>
     <row r="16" spans="1:34">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B16">
         <v>-0.31</v>
@@ -1879,7 +1972,7 @@
         <v>0.21</v>
       </c>
       <c r="E16">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="F16">
         <v>1.18</v>
@@ -1970,8 +2063,8 @@
       </c>
     </row>
     <row r="17" spans="1:34">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B17">
         <v>-0.31</v>
@@ -2074,23 +2167,23 @@
       </c>
     </row>
     <row r="18" spans="1:34">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B18">
-        <v>388000000</v>
+        <v>387688000</v>
       </c>
       <c r="C18">
-        <v>388000000</v>
+        <v>387563000</v>
       </c>
       <c r="D18">
-        <v>388000000</v>
+        <v>390291000</v>
       </c>
       <c r="E18">
-        <v>390000000</v>
+        <v>390430000</v>
       </c>
       <c r="F18">
-        <v>392000000</v>
+        <v>391779000</v>
       </c>
       <c r="G18">
         <v>391351000</v>
@@ -2178,23 +2271,23 @@
       </c>
     </row>
     <row r="19" spans="1:34">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B19">
-        <v>388000000</v>
+        <v>387688000</v>
       </c>
       <c r="C19">
-        <v>388000000</v>
+        <v>387563000</v>
       </c>
       <c r="D19">
-        <v>389000000</v>
+        <v>392411000</v>
       </c>
       <c r="E19">
-        <v>392000000</v>
+        <v>392495000</v>
       </c>
       <c r="F19">
-        <v>394000000</v>
+        <v>394017000</v>
       </c>
       <c r="G19">
         <v>394128000</v>
@@ -2282,23 +2375,23 @@
       </c>
     </row>
     <row r="20" spans="1:34">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B20">
-        <v>0.5121</v>
+        <v>0.5137</v>
       </c>
       <c r="C20">
-        <v>0.538</v>
+        <v>0.5387999999999999</v>
       </c>
       <c r="D20">
-        <v>0.5208</v>
+        <v>0.519</v>
       </c>
       <c r="E20">
-        <v>0.5627</v>
+        <v>0.5606</v>
       </c>
       <c r="F20">
-        <v>0.5432</v>
+        <v>0.5374</v>
       </c>
       <c r="G20">
         <v>0.5646</v>
@@ -2386,23 +2479,23 @@
       </c>
     </row>
     <row r="21" spans="1:34">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B21">
-        <v>-0.0294</v>
+        <v>-0.0295</v>
       </c>
       <c r="C21">
         <v>0.028</v>
       </c>
       <c r="D21">
-        <v>0.0678</v>
+        <v>0.06809999999999999</v>
       </c>
       <c r="E21">
-        <v>0.1867</v>
+        <v>0.1872</v>
       </c>
       <c r="F21">
-        <v>0.1744</v>
+        <v>0.1746</v>
       </c>
       <c r="G21">
         <v>0.0924</v>
@@ -2490,23 +2583,23 @@
       </c>
     </row>
     <row r="22" spans="1:34">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B22">
-        <v>-0.0434</v>
+        <v>-0.0435</v>
       </c>
       <c r="C22">
-        <v>-0.0278</v>
+        <v>-0.0277</v>
       </c>
       <c r="D22">
-        <v>0.0603</v>
+        <v>0.0606</v>
       </c>
       <c r="E22">
-        <v>0.1764</v>
+        <v>0.1769</v>
       </c>
       <c r="F22">
-        <v>0.1661</v>
+        <v>0.1662</v>
       </c>
       <c r="G22">
         <v>0.08160000000000001</v>
@@ -2594,11 +2687,11 @@
       </c>
     </row>
     <row r="23" spans="1:34">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B23">
-        <v>-0.0382</v>
+        <v>-0.0384</v>
       </c>
       <c r="C23">
         <v>-0.0247</v>
@@ -2607,10 +2700,10 @@
         <v>0.0286</v>
       </c>
       <c r="E23">
-        <v>0.1425</v>
+        <v>0.1429</v>
       </c>
       <c r="F23">
-        <v>0.1449</v>
+        <v>0.1451</v>
       </c>
       <c r="G23">
         <v>0.1477</v>
@@ -2698,23 +2791,23 @@
       </c>
     </row>
     <row r="24" spans="1:34">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B24">
-        <v>530000000</v>
+        <v>487515100</v>
       </c>
       <c r="C24">
-        <v>227000000</v>
+        <v>223453100</v>
       </c>
       <c r="D24">
-        <v>380000000</v>
+        <v>360217900</v>
       </c>
       <c r="E24">
-        <v>861000000</v>
+        <v>844442100</v>
       </c>
       <c r="F24">
-        <v>754000000</v>
+        <v>728746100</v>
       </c>
       <c r="G24">
         <v>375863900</v>
@@ -2802,8 +2895,8 @@
       </c>
     </row>
     <row r="25" spans="1:34">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B25">
         <v>-90818900</v>
@@ -2891,8 +2984,8 @@
       </c>
     </row>
     <row r="26" spans="1:34">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B26">
         <v>-118432000</v>
@@ -2986,8 +3079,8 @@
       </c>
     </row>
     <row r="27" spans="1:34">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D27">
         <v>399000</v>
@@ -3057,23 +3150,23 @@
       </c>
     </row>
     <row r="28" spans="1:34">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B28">
-        <v>-118000000</v>
+        <v>-118432000</v>
       </c>
       <c r="C28">
-        <v>-56000000</v>
+        <v>-55960000</v>
       </c>
       <c r="D28">
-        <v>80000000</v>
+        <v>80842000</v>
       </c>
       <c r="E28">
-        <v>518000000</v>
+        <v>517801000</v>
       </c>
       <c r="F28">
-        <v>464000000</v>
+        <v>464053000</v>
       </c>
       <c r="G28">
         <v>324245000</v>
@@ -3149,8 +3242,8 @@
       </c>
     </row>
     <row r="29" spans="1:34">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B29">
         <v>-0.31</v>
@@ -3244,8 +3337,8 @@
       </c>
     </row>
     <row r="30" spans="1:34">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B30">
         <v>-0.31</v>
@@ -3339,8 +3432,8 @@
       </c>
     </row>
     <row r="31" spans="1:34">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D31">
         <v>0.001</v>
@@ -3410,8 +3503,8 @@
       </c>
     </row>
     <row r="32" spans="1:34">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D32">
         <v>0.001</v>
@@ -3481,8 +3574,8 @@
       </c>
     </row>
     <row r="33" spans="1:34">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B33">
         <v>-0.3055</v>
@@ -3570,8 +3663,8 @@
       </c>
     </row>
     <row r="34" spans="1:34">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B34">
         <v>-0.3055</v>
@@ -3659,8 +3752,8 @@
       </c>
     </row>
     <row r="35" spans="1:34">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B35">
         <v>387688000</v>
@@ -3763,23 +3856,23 @@
       </c>
     </row>
     <row r="36" spans="1:34">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B36">
-        <v>0.1715</v>
+        <v>0.1583</v>
       </c>
       <c r="C36">
-        <v>0.1002</v>
+        <v>0.0988</v>
       </c>
       <c r="D36">
-        <v>0.134</v>
+        <v>0.1275</v>
       </c>
       <c r="E36">
-        <v>0.2369</v>
+        <v>0.233</v>
       </c>
       <c r="F36">
-        <v>0.2354</v>
+        <v>0.2279</v>
       </c>
       <c r="G36">
         <v>0.1713</v>
@@ -3867,23 +3960,23 @@
       </c>
     </row>
     <row r="37" spans="1:34">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B37">
-        <v>-0.1798</v>
+        <v>-0.1804</v>
       </c>
       <c r="C37">
-        <v>-0.1581</v>
+        <v>-0.1584</v>
       </c>
       <c r="D37">
-        <v>0.0236</v>
+        <v>0.0237</v>
       </c>
       <c r="E37">
-        <v>0.2665</v>
+        <v>0.2672</v>
       </c>
       <c r="F37">
-        <v>-0.07870000000000001</v>
+        <v>-0.0788</v>
       </c>
       <c r="G37">
         <v>0.0369</v>
